--- a/Code/Results/Cases/Case_5_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000564742446281</v>
+        <v>1.046534378652948</v>
       </c>
       <c r="D2">
-        <v>1.020890003377767</v>
+        <v>1.049846645543808</v>
       </c>
       <c r="E2">
-        <v>1.006439298517437</v>
+        <v>1.044084260354382</v>
       </c>
       <c r="F2">
-        <v>1.025175696794119</v>
+        <v>1.059014975232591</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043907816708974</v>
+        <v>1.039146763037204</v>
       </c>
       <c r="J2">
-        <v>1.022728575272311</v>
+        <v>1.051588260669239</v>
       </c>
       <c r="K2">
-        <v>1.032065780990766</v>
+        <v>1.052602567067424</v>
       </c>
       <c r="L2">
-        <v>1.017809646752609</v>
+        <v>1.046856306123833</v>
       </c>
       <c r="M2">
-        <v>1.03629509167458</v>
+        <v>1.061745633832941</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.007713729496066</v>
+        <v>1.047979743052007</v>
       </c>
       <c r="D3">
-        <v>1.026185191858895</v>
+        <v>1.050927493606548</v>
       </c>
       <c r="E3">
-        <v>1.012376995774056</v>
+        <v>1.045330155527063</v>
       </c>
       <c r="F3">
-        <v>1.031078988216468</v>
+        <v>1.060243561956824</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045842493919962</v>
+        <v>1.039455476554014</v>
       </c>
       <c r="J3">
-        <v>1.027996296689513</v>
+        <v>1.052679290317648</v>
       </c>
       <c r="K3">
-        <v>1.036493642005103</v>
+        <v>1.053495050327573</v>
       </c>
       <c r="L3">
-        <v>1.022853922609443</v>
+        <v>1.047912232682431</v>
       </c>
       <c r="M3">
-        <v>1.041329070441916</v>
+        <v>1.062787317718792</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.012209389702775</v>
+        <v>1.048914098613176</v>
       </c>
       <c r="D4">
-        <v>1.029517974638693</v>
+        <v>1.051625910123483</v>
       </c>
       <c r="E4">
-        <v>1.016117189968161</v>
+        <v>1.046135779253045</v>
       </c>
       <c r="F4">
-        <v>1.034797080707908</v>
+        <v>1.061037832366606</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047047257504931</v>
+        <v>1.03965346432105</v>
       </c>
       <c r="J4">
-        <v>1.031305851782891</v>
+        <v>1.053383952083915</v>
       </c>
       <c r="K4">
-        <v>1.03927273299607</v>
+        <v>1.054070990328696</v>
       </c>
       <c r="L4">
-        <v>1.026024909817316</v>
+        <v>1.048594378973953</v>
       </c>
       <c r="M4">
-        <v>1.044492919539605</v>
+        <v>1.063460085431428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014069850516844</v>
+        <v>1.04930669370884</v>
       </c>
       <c r="D5">
-        <v>1.030897771266249</v>
+        <v>1.051919296636343</v>
       </c>
       <c r="E5">
-        <v>1.017666422869992</v>
+        <v>1.046474334767034</v>
       </c>
       <c r="F5">
-        <v>1.036337026650092</v>
+        <v>1.06137157784724</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047542917021781</v>
+        <v>1.039736275678081</v>
       </c>
       <c r="J5">
-        <v>1.032674653938678</v>
+        <v>1.053679882693964</v>
       </c>
       <c r="K5">
-        <v>1.040421436796034</v>
+        <v>1.054312745855685</v>
       </c>
       <c r="L5">
-        <v>1.027336830027511</v>
+        <v>1.048880891362996</v>
       </c>
       <c r="M5">
-        <v>1.045801701057587</v>
+        <v>1.063742615850366</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014380545122804</v>
+        <v>1.049372600117031</v>
       </c>
       <c r="D6">
-        <v>1.031128226077031</v>
+        <v>1.051968544254862</v>
       </c>
       <c r="E6">
-        <v>1.017925223210112</v>
+        <v>1.046531172292674</v>
       </c>
       <c r="F6">
-        <v>1.036594267011506</v>
+        <v>1.061427605562037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047625518295427</v>
+        <v>1.039750155315725</v>
       </c>
       <c r="J6">
-        <v>1.032903192712598</v>
+        <v>1.053729552723958</v>
       </c>
       <c r="K6">
-        <v>1.040613185162001</v>
+        <v>1.054353316081255</v>
       </c>
       <c r="L6">
-        <v>1.027555896643814</v>
+        <v>1.048928982797673</v>
       </c>
       <c r="M6">
-        <v>1.046020231936077</v>
+        <v>1.063790036386844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012234363147222</v>
+        <v>1.048919345298427</v>
       </c>
       <c r="D7">
-        <v>1.029536493879603</v>
+        <v>1.051629831259657</v>
       </c>
       <c r="E7">
-        <v>1.016137980256054</v>
+        <v>1.0461403035493</v>
       </c>
       <c r="F7">
-        <v>1.034817746927275</v>
+        <v>1.061042292537146</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047053922484968</v>
+        <v>1.039654572509942</v>
       </c>
       <c r="J7">
-        <v>1.031324228851008</v>
+        <v>1.053387907533451</v>
       </c>
       <c r="K7">
-        <v>1.039288157921242</v>
+        <v>1.054074222126716</v>
       </c>
       <c r="L7">
-        <v>1.026042521521322</v>
+        <v>1.048598208391277</v>
       </c>
       <c r="M7">
-        <v>1.044510489875736</v>
+        <v>1.063463861795919</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003008778452058</v>
+        <v>1.047023034317174</v>
       </c>
       <c r="D8">
-        <v>1.022699594001667</v>
+        <v>1.050212124775588</v>
       </c>
       <c r="E8">
-        <v>1.008467851661849</v>
+        <v>1.044505433456517</v>
       </c>
       <c r="F8">
-        <v>1.027192567400511</v>
+        <v>1.059430330468118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044571686940704</v>
+        <v>1.0392514615179</v>
       </c>
       <c r="J8">
-        <v>1.024530061001126</v>
+        <v>1.051957252233892</v>
       </c>
       <c r="K8">
-        <v>1.033580618966703</v>
+        <v>1.052904509991854</v>
       </c>
       <c r="L8">
-        <v>1.019534329317976</v>
+        <v>1.047213393166275</v>
       </c>
       <c r="M8">
-        <v>1.038016377403441</v>
+        <v>1.062097940997232</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9856727391586911</v>
+        <v>1.0436744133692</v>
       </c>
       <c r="D9">
-        <v>1.009881645280796</v>
+        <v>1.047706418553494</v>
       </c>
       <c r="E9">
-        <v>0.9941100806493844</v>
+        <v>1.041620168270325</v>
       </c>
       <c r="F9">
-        <v>1.012916964463028</v>
+        <v>1.056584270431711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039814541672716</v>
+        <v>1.038527515737628</v>
       </c>
       <c r="J9">
-        <v>1.011741775943994</v>
+        <v>1.049426071465249</v>
       </c>
       <c r="K9">
-        <v>1.022816408622456</v>
+        <v>1.050831275495355</v>
       </c>
       <c r="L9">
-        <v>1.007299446012651</v>
+        <v>1.044764520677925</v>
       </c>
       <c r="M9">
-        <v>1.025803892372246</v>
+        <v>1.059681130096645</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9732612094864368</v>
+        <v>1.041436891292179</v>
       </c>
       <c r="D10">
-        <v>1.000734354267057</v>
+        <v>1.0460306896912</v>
       </c>
       <c r="E10">
-        <v>0.983875991798308</v>
+        <v>1.039693444049454</v>
       </c>
       <c r="F10">
-        <v>1.002742435307062</v>
+        <v>1.054682922033517</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03635061478736</v>
+        <v>1.038035657956309</v>
       </c>
       <c r="J10">
-        <v>1.002577390658941</v>
+        <v>1.047731530533521</v>
       </c>
       <c r="K10">
-        <v>1.015090362367326</v>
+        <v>1.049440828488295</v>
       </c>
       <c r="L10">
-        <v>0.9985426034096274</v>
+        <v>1.043125898079315</v>
       </c>
       <c r="M10">
-        <v>1.017062350151872</v>
+        <v>1.058063070409045</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9676508796700226</v>
+        <v>1.040466729805597</v>
       </c>
       <c r="D11">
-        <v>0.9966089851967078</v>
+        <v>1.045303788674874</v>
       </c>
       <c r="E11">
-        <v>0.9792625685248055</v>
+        <v>1.038858333535812</v>
       </c>
       <c r="F11">
-        <v>0.9981566925975824</v>
+        <v>1.053858623424877</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034772290218087</v>
+        <v>1.037820472467435</v>
       </c>
       <c r="J11">
-        <v>0.9984342140072682</v>
+        <v>1.046996040513564</v>
       </c>
       <c r="K11">
-        <v>1.011595135683431</v>
+        <v>1.048836740780722</v>
       </c>
       <c r="L11">
-        <v>0.9945864530320052</v>
+        <v>1.042414873016589</v>
       </c>
       <c r="M11">
-        <v>1.013113454919194</v>
+        <v>1.057360760616897</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9655282152952865</v>
+        <v>1.040106166561447</v>
       </c>
       <c r="D12">
-        <v>0.9950498039890384</v>
+        <v>1.045033586103836</v>
       </c>
       <c r="E12">
-        <v>0.9775191669071841</v>
+        <v>1.038548007328179</v>
       </c>
       <c r="F12">
-        <v>0.9964239335758145</v>
+        <v>1.053552287165509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034173367359778</v>
+        <v>1.037740209762215</v>
       </c>
       <c r="J12">
-        <v>0.996866688066714</v>
+        <v>1.046722580212256</v>
       </c>
       <c r="K12">
-        <v>1.010272460438078</v>
+        <v>1.048612049239863</v>
       </c>
       <c r="L12">
-        <v>0.9930901209022595</v>
+        <v>1.042150538254105</v>
       </c>
       <c r="M12">
-        <v>1.01161996757006</v>
+        <v>1.057099635072885</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9659853440766696</v>
+        <v>1.040183517855243</v>
       </c>
       <c r="D13">
-        <v>0.9953855048174692</v>
+        <v>1.045091554549124</v>
       </c>
       <c r="E13">
-        <v>0.9778945219169319</v>
+        <v>1.038614579267958</v>
       </c>
       <c r="F13">
-        <v>0.9967969880222276</v>
+        <v>1.053618004421885</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034302426686938</v>
+        <v>1.037757441489192</v>
       </c>
       <c r="J13">
-        <v>0.9972042601131295</v>
+        <v>1.046781250514204</v>
       </c>
       <c r="K13">
-        <v>1.010557315411058</v>
+        <v>1.04866026026684</v>
       </c>
       <c r="L13">
-        <v>0.9934123412142715</v>
+        <v>1.042207249364954</v>
       </c>
       <c r="M13">
-        <v>1.011941569899881</v>
+        <v>1.057155659058431</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.967476230215625</v>
+        <v>1.040436929697103</v>
       </c>
       <c r="D14">
-        <v>0.9964806633819044</v>
+        <v>1.045281457732009</v>
       </c>
       <c r="E14">
-        <v>0.9791190808199172</v>
+        <v>1.038832684533997</v>
       </c>
       <c r="F14">
-        <v>0.9980140767662292</v>
+        <v>1.053833304763223</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034723046861751</v>
+        <v>1.037813844733954</v>
       </c>
       <c r="J14">
-        <v>0.9983052387626706</v>
+        <v>1.046973441665096</v>
       </c>
       <c r="K14">
-        <v>1.011486312268258</v>
+        <v>1.048818173981478</v>
       </c>
       <c r="L14">
-        <v>0.9944633266617815</v>
+        <v>1.042393027707655</v>
       </c>
       <c r="M14">
-        <v>1.012990560290511</v>
+        <v>1.057339181152762</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9683895762843833</v>
+        <v>1.040593038115612</v>
       </c>
       <c r="D15">
-        <v>0.9971518030899863</v>
+        <v>1.045398436840074</v>
       </c>
       <c r="E15">
-        <v>0.9798695493774747</v>
+        <v>1.038967049150098</v>
       </c>
       <c r="F15">
-        <v>0.998759993020617</v>
+        <v>1.05396593772847</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034980498716517</v>
+        <v>1.037848552431871</v>
       </c>
       <c r="J15">
-        <v>0.9989797297393386</v>
+        <v>1.047091821511776</v>
       </c>
       <c r="K15">
-        <v>1.012055405295982</v>
+        <v>1.048915429110353</v>
       </c>
       <c r="L15">
-        <v>0.9951072480390827</v>
+        <v>1.042507461478069</v>
       </c>
       <c r="M15">
-        <v>1.013633274112857</v>
+        <v>1.057452221070451</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9736283049489236</v>
+        <v>1.041501249751964</v>
       </c>
       <c r="D16">
-        <v>1.001004500004678</v>
+        <v>1.046078904004776</v>
       </c>
       <c r="E16">
-        <v>0.9841781344459626</v>
+        <v>1.039748849763234</v>
       </c>
       <c r="F16">
-        <v>1.003042787007901</v>
+        <v>1.054737606520046</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036453637936187</v>
+        <v>1.038049892461604</v>
       </c>
       <c r="J16">
-        <v>1.002848485294006</v>
+        <v>1.047780305464062</v>
       </c>
       <c r="K16">
-        <v>1.015319017055329</v>
+        <v>1.049480877027883</v>
       </c>
       <c r="L16">
-        <v>0.9988015195233924</v>
+        <v>1.043173054686086</v>
       </c>
       <c r="M16">
-        <v>1.017320802558696</v>
+        <v>1.058109644665167</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9768490357810992</v>
+        <v>1.042070594163166</v>
       </c>
       <c r="D17">
-        <v>1.003375728717421</v>
+        <v>1.046505392420739</v>
       </c>
       <c r="E17">
-        <v>0.9868304464253959</v>
+        <v>1.040239028017601</v>
       </c>
       <c r="F17">
-        <v>1.005679477724592</v>
+        <v>1.05522138249037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037356114090831</v>
+        <v>1.038175595566847</v>
       </c>
       <c r="J17">
-        <v>1.005226890861911</v>
+        <v>1.048211703364739</v>
       </c>
       <c r="K17">
-        <v>1.017324826943437</v>
+        <v>1.049835025467018</v>
       </c>
       <c r="L17">
-        <v>1.001073394260019</v>
+        <v>1.043590161501385</v>
       </c>
       <c r="M17">
-        <v>1.01958865258606</v>
+        <v>1.058521576624886</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978705099158952</v>
+        <v>1.042402558190088</v>
       </c>
       <c r="D18">
-        <v>1.004743107089509</v>
+        <v>1.046754030798145</v>
       </c>
       <c r="E18">
-        <v>0.9883601139751157</v>
+        <v>1.040524861312912</v>
       </c>
       <c r="F18">
-        <v>1.007200210324571</v>
+        <v>1.055503464436185</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037875011457769</v>
+        <v>1.038248703142955</v>
       </c>
       <c r="J18">
-        <v>1.006597463858527</v>
+        <v>1.048463162647868</v>
       </c>
       <c r="K18">
-        <v>1.018480467519596</v>
+        <v>1.050041400098525</v>
       </c>
       <c r="L18">
-        <v>1.002382838088065</v>
+        <v>1.043833309324554</v>
       </c>
       <c r="M18">
-        <v>1.020895805489835</v>
+        <v>1.058761687823444</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9793342394770103</v>
+        <v>1.042515728358449</v>
       </c>
       <c r="D19">
-        <v>1.005206741736817</v>
+        <v>1.046838788959134</v>
       </c>
       <c r="E19">
-        <v>0.9888788119724551</v>
+        <v>1.04062230976046</v>
       </c>
       <c r="F19">
-        <v>1.007715889558611</v>
+        <v>1.055599630874961</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038050694689993</v>
+        <v>1.038273594868518</v>
       </c>
       <c r="J19">
-        <v>1.007062024293855</v>
+        <v>1.048548875443986</v>
       </c>
       <c r="K19">
-        <v>1.018872136781138</v>
+        <v>1.050111735694027</v>
       </c>
       <c r="L19">
-        <v>1.002826722208698</v>
+        <v>1.043916192237944</v>
       </c>
       <c r="M19">
-        <v>1.021338916528728</v>
+        <v>1.058843532226527</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9765058350473197</v>
+        <v>1.042009521868226</v>
       </c>
       <c r="D20">
-        <v>1.003122958718281</v>
+        <v>1.046459647218415</v>
       </c>
       <c r="E20">
-        <v>0.9865476928792032</v>
+        <v>1.040186444776591</v>
       </c>
       <c r="F20">
-        <v>1.005398381401428</v>
+        <v>1.055169487910163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03726006890708</v>
+        <v>1.038162130847615</v>
       </c>
       <c r="J20">
-        <v>1.004973454539977</v>
+        <v>1.048165435845012</v>
       </c>
       <c r="K20">
-        <v>1.017111116043148</v>
+        <v>1.049797048801364</v>
       </c>
       <c r="L20">
-        <v>1.000831282438709</v>
+        <v>1.043545424765349</v>
       </c>
       <c r="M20">
-        <v>1.019346966349821</v>
+        <v>1.058477396984074</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9670382991302544</v>
+        <v>1.040362311858871</v>
       </c>
       <c r="D21">
-        <v>0.9961589255605829</v>
+        <v>1.04522554150778</v>
       </c>
       <c r="E21">
-        <v>0.9787593215600071</v>
+        <v>1.038768461568861</v>
       </c>
       <c r="F21">
-        <v>0.9976565066456514</v>
+        <v>1.053769908495342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034599541873621</v>
+        <v>1.037797244595428</v>
       </c>
       <c r="J21">
-        <v>0.997981836297175</v>
+        <v>1.04691685355808</v>
       </c>
       <c r="K21">
-        <v>1.011213435514507</v>
+        <v>1.048771680818643</v>
       </c>
       <c r="L21">
-        <v>0.9941545971628227</v>
+        <v>1.04233832695678</v>
       </c>
       <c r="M21">
-        <v>1.012682413660106</v>
+        <v>1.057285145581784</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9608596195313484</v>
+        <v>1.039325473021557</v>
       </c>
       <c r="D22">
-        <v>0.9916238548397763</v>
+        <v>1.044448455960254</v>
       </c>
       <c r="E22">
-        <v>0.9736887883447325</v>
+        <v>1.037876170585039</v>
       </c>
       <c r="F22">
-        <v>0.9926173424109219</v>
+        <v>1.052889038028634</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032852981377899</v>
+        <v>1.03756589737264</v>
       </c>
       <c r="J22">
-        <v>0.9934193097206696</v>
+        <v>1.046130275707092</v>
       </c>
       <c r="K22">
-        <v>1.007363091267387</v>
+        <v>1.048125216262427</v>
       </c>
       <c r="L22">
-        <v>0.9898001375491147</v>
+        <v>1.04157805300702</v>
       </c>
       <c r="M22">
-        <v>1.008336483733263</v>
+        <v>1.056534044191862</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9641576878849762</v>
+        <v>1.039875234332617</v>
       </c>
       <c r="D23">
-        <v>0.9940435931739893</v>
+        <v>1.04486051445363</v>
       </c>
       <c r="E23">
-        <v>0.9763941278936262</v>
+        <v>1.038349263509602</v>
       </c>
       <c r="F23">
-        <v>0.9953058214260808</v>
+        <v>1.053356090881002</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033786183013509</v>
+        <v>1.037688722250621</v>
       </c>
       <c r="J23">
-        <v>0.9958546238529188</v>
+        <v>1.046547403513507</v>
       </c>
       <c r="K23">
-        <v>1.009418406957865</v>
+        <v>1.048468088860797</v>
       </c>
       <c r="L23">
-        <v>0.992124147360733</v>
+        <v>1.041981215568441</v>
       </c>
       <c r="M23">
-        <v>1.010655865486137</v>
+        <v>1.056932359452955</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9766609820816179</v>
+        <v>1.042037118195877</v>
       </c>
       <c r="D24">
-        <v>1.003237223021033</v>
+        <v>1.046480317893179</v>
       </c>
       <c r="E24">
-        <v>0.986675510569028</v>
+        <v>1.040210205125456</v>
       </c>
       <c r="F24">
-        <v>1.005525449723261</v>
+        <v>1.055192937135425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037303490708595</v>
+        <v>1.038168215632697</v>
       </c>
       <c r="J24">
-        <v>1.005088022976875</v>
+        <v>1.04818634266447</v>
       </c>
       <c r="K24">
-        <v>1.017207726895928</v>
+        <v>1.049814209422129</v>
       </c>
       <c r="L24">
-        <v>1.000940730715018</v>
+        <v>1.043565639814494</v>
       </c>
       <c r="M24">
-        <v>1.019456222151703</v>
+        <v>1.058497360362186</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9902948061665797</v>
+        <v>1.044540986809849</v>
       </c>
       <c r="D25">
-        <v>1.013294803875376</v>
+        <v>1.048355115852484</v>
       </c>
       <c r="E25">
-        <v>0.9979309678780911</v>
+        <v>1.042366626893344</v>
       </c>
       <c r="F25">
-        <v>1.016715994159872</v>
+        <v>1.05732072918108</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041093149041155</v>
+        <v>1.03871629392121</v>
       </c>
       <c r="J25">
-        <v>1.015153262085326</v>
+        <v>1.050081673801864</v>
       </c>
       <c r="K25">
-        <v>1.025690182163328</v>
+        <v>1.051368703779197</v>
       </c>
       <c r="L25">
-        <v>1.010561488041809</v>
+        <v>1.045398661136658</v>
       </c>
       <c r="M25">
-        <v>1.029060241776432</v>
+        <v>1.060307126169889</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_140/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_140/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.046534378652948</v>
+        <v>1.000564742446281</v>
       </c>
       <c r="D2">
-        <v>1.049846645543808</v>
+        <v>1.020890003377767</v>
       </c>
       <c r="E2">
-        <v>1.044084260354382</v>
+        <v>1.006439298517436</v>
       </c>
       <c r="F2">
-        <v>1.059014975232591</v>
+        <v>1.025175696794119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039146763037204</v>
+        <v>1.043907816708974</v>
       </c>
       <c r="J2">
-        <v>1.051588260669239</v>
+        <v>1.022728575272311</v>
       </c>
       <c r="K2">
-        <v>1.052602567067424</v>
+        <v>1.032065780990766</v>
       </c>
       <c r="L2">
-        <v>1.046856306123833</v>
+        <v>1.017809646752609</v>
       </c>
       <c r="M2">
-        <v>1.061745633832941</v>
+        <v>1.036295091674581</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.047979743052007</v>
+        <v>1.007713729496067</v>
       </c>
       <c r="D3">
-        <v>1.050927493606548</v>
+        <v>1.026185191858896</v>
       </c>
       <c r="E3">
-        <v>1.045330155527063</v>
+        <v>1.012376995774057</v>
       </c>
       <c r="F3">
-        <v>1.060243561956824</v>
+        <v>1.031078988216468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039455476554014</v>
+        <v>1.045842493919962</v>
       </c>
       <c r="J3">
-        <v>1.052679290317648</v>
+        <v>1.027996296689514</v>
       </c>
       <c r="K3">
-        <v>1.053495050327573</v>
+        <v>1.036493642005104</v>
       </c>
       <c r="L3">
-        <v>1.047912232682431</v>
+        <v>1.022853922609444</v>
       </c>
       <c r="M3">
-        <v>1.062787317718792</v>
+        <v>1.041329070441917</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.048914098613176</v>
+        <v>1.012209389702776</v>
       </c>
       <c r="D4">
-        <v>1.051625910123483</v>
+        <v>1.029517974638694</v>
       </c>
       <c r="E4">
-        <v>1.046135779253045</v>
+        <v>1.016117189968163</v>
       </c>
       <c r="F4">
-        <v>1.061037832366606</v>
+        <v>1.034797080707909</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03965346432105</v>
+        <v>1.047047257504931</v>
       </c>
       <c r="J4">
-        <v>1.053383952083915</v>
+        <v>1.031305851782892</v>
       </c>
       <c r="K4">
-        <v>1.054070990328696</v>
+        <v>1.039272732996071</v>
       </c>
       <c r="L4">
-        <v>1.048594378973953</v>
+        <v>1.026024909817318</v>
       </c>
       <c r="M4">
-        <v>1.063460085431428</v>
+        <v>1.044492919539606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04930669370884</v>
+        <v>1.014069850516844</v>
       </c>
       <c r="D5">
-        <v>1.051919296636343</v>
+        <v>1.03089777126625</v>
       </c>
       <c r="E5">
-        <v>1.046474334767034</v>
+        <v>1.017666422869992</v>
       </c>
       <c r="F5">
-        <v>1.06137157784724</v>
+        <v>1.036337026650092</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039736275678081</v>
+        <v>1.047542917021781</v>
       </c>
       <c r="J5">
-        <v>1.053679882693964</v>
+        <v>1.032674653938678</v>
       </c>
       <c r="K5">
-        <v>1.054312745855685</v>
+        <v>1.040421436796035</v>
       </c>
       <c r="L5">
-        <v>1.048880891362996</v>
+        <v>1.027336830027511</v>
       </c>
       <c r="M5">
-        <v>1.063742615850366</v>
+        <v>1.045801701057588</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049372600117031</v>
+        <v>1.014380545122805</v>
       </c>
       <c r="D6">
-        <v>1.051968544254862</v>
+        <v>1.031128226077032</v>
       </c>
       <c r="E6">
-        <v>1.046531172292674</v>
+        <v>1.017925223210112</v>
       </c>
       <c r="F6">
-        <v>1.061427605562037</v>
+        <v>1.036594267011507</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039750155315725</v>
+        <v>1.047625518295427</v>
       </c>
       <c r="J6">
-        <v>1.053729552723958</v>
+        <v>1.032903192712598</v>
       </c>
       <c r="K6">
-        <v>1.054353316081255</v>
+        <v>1.040613185162002</v>
       </c>
       <c r="L6">
-        <v>1.048928982797673</v>
+        <v>1.027555896643815</v>
       </c>
       <c r="M6">
-        <v>1.063790036386844</v>
+        <v>1.046020231936077</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.048919345298427</v>
+        <v>1.012234363147223</v>
       </c>
       <c r="D7">
-        <v>1.051629831259657</v>
+        <v>1.029536493879604</v>
       </c>
       <c r="E7">
-        <v>1.0461403035493</v>
+        <v>1.016137980256053</v>
       </c>
       <c r="F7">
-        <v>1.061042292537146</v>
+        <v>1.034817746927275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039654572509942</v>
+        <v>1.047053922484968</v>
       </c>
       <c r="J7">
-        <v>1.053387907533451</v>
+        <v>1.031324228851009</v>
       </c>
       <c r="K7">
-        <v>1.054074222126716</v>
+        <v>1.039288157921243</v>
       </c>
       <c r="L7">
-        <v>1.048598208391277</v>
+        <v>1.026042521521322</v>
       </c>
       <c r="M7">
-        <v>1.063463861795919</v>
+        <v>1.044510489875736</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.047023034317174</v>
+        <v>1.003008778452059</v>
       </c>
       <c r="D8">
-        <v>1.050212124775588</v>
+        <v>1.022699594001669</v>
       </c>
       <c r="E8">
-        <v>1.044505433456517</v>
+        <v>1.008467851661851</v>
       </c>
       <c r="F8">
-        <v>1.059430330468118</v>
+        <v>1.027192567400512</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0392514615179</v>
+        <v>1.044571686940705</v>
       </c>
       <c r="J8">
-        <v>1.051957252233892</v>
+        <v>1.024530061001128</v>
       </c>
       <c r="K8">
-        <v>1.052904509991854</v>
+        <v>1.033580618966705</v>
       </c>
       <c r="L8">
-        <v>1.047213393166275</v>
+        <v>1.019534329317977</v>
       </c>
       <c r="M8">
-        <v>1.062097940997232</v>
+        <v>1.038016377403443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.0436744133692</v>
+        <v>0.9856727391586904</v>
       </c>
       <c r="D9">
-        <v>1.047706418553494</v>
+        <v>1.009881645280795</v>
       </c>
       <c r="E9">
-        <v>1.041620168270325</v>
+        <v>0.9941100806493836</v>
       </c>
       <c r="F9">
-        <v>1.056584270431711</v>
+        <v>1.012916964463027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038527515737628</v>
+        <v>1.039814541672715</v>
       </c>
       <c r="J9">
-        <v>1.049426071465249</v>
+        <v>1.011741775943993</v>
       </c>
       <c r="K9">
-        <v>1.050831275495355</v>
+        <v>1.022816408622456</v>
       </c>
       <c r="L9">
-        <v>1.044764520677925</v>
+        <v>1.00729944601265</v>
       </c>
       <c r="M9">
-        <v>1.059681130096645</v>
+        <v>1.025803892372245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041436891292179</v>
+        <v>0.9732612094864347</v>
       </c>
       <c r="D10">
-        <v>1.0460306896912</v>
+        <v>1.000734354267055</v>
       </c>
       <c r="E10">
-        <v>1.039693444049454</v>
+        <v>0.9838759917983062</v>
       </c>
       <c r="F10">
-        <v>1.054682922033517</v>
+        <v>1.00274243530706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038035657956309</v>
+        <v>1.036350614787359</v>
       </c>
       <c r="J10">
-        <v>1.047731530533521</v>
+        <v>1.002577390658939</v>
       </c>
       <c r="K10">
-        <v>1.049440828488295</v>
+        <v>1.015090362367324</v>
       </c>
       <c r="L10">
-        <v>1.043125898079315</v>
+        <v>0.9985426034096256</v>
       </c>
       <c r="M10">
-        <v>1.058063070409045</v>
+        <v>1.01706235015187</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.040466729805597</v>
+        <v>0.9676508796700221</v>
       </c>
       <c r="D11">
-        <v>1.045303788674874</v>
+        <v>0.9966089851967073</v>
       </c>
       <c r="E11">
-        <v>1.038858333535812</v>
+        <v>0.979262568524805</v>
       </c>
       <c r="F11">
-        <v>1.053858623424877</v>
+        <v>0.9981566925975816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037820472467435</v>
+        <v>1.034772290218087</v>
       </c>
       <c r="J11">
-        <v>1.046996040513564</v>
+        <v>0.9984342140072674</v>
       </c>
       <c r="K11">
-        <v>1.048836740780722</v>
+        <v>1.01159513568343</v>
       </c>
       <c r="L11">
-        <v>1.042414873016589</v>
+        <v>0.9945864530320045</v>
       </c>
       <c r="M11">
-        <v>1.057360760616897</v>
+        <v>1.013113454919194</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040106166561447</v>
+        <v>0.9655282152952842</v>
       </c>
       <c r="D12">
-        <v>1.045033586103836</v>
+        <v>0.9950498039890368</v>
       </c>
       <c r="E12">
-        <v>1.038548007328179</v>
+        <v>0.9775191669071819</v>
       </c>
       <c r="F12">
-        <v>1.053552287165509</v>
+        <v>0.9964239335758127</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037740209762215</v>
+        <v>1.034173367359778</v>
       </c>
       <c r="J12">
-        <v>1.046722580212256</v>
+        <v>0.996866688066712</v>
       </c>
       <c r="K12">
-        <v>1.048612049239863</v>
+        <v>1.010272460438076</v>
       </c>
       <c r="L12">
-        <v>1.042150538254105</v>
+        <v>0.9930901209022575</v>
       </c>
       <c r="M12">
-        <v>1.057099635072885</v>
+        <v>1.011619967570058</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040183517855243</v>
+        <v>0.9659853440766684</v>
       </c>
       <c r="D13">
-        <v>1.045091554549124</v>
+        <v>0.9953855048174681</v>
       </c>
       <c r="E13">
-        <v>1.038614579267958</v>
+        <v>0.9778945219169306</v>
       </c>
       <c r="F13">
-        <v>1.053618004421885</v>
+        <v>0.9967969880222259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037757441489192</v>
+        <v>1.034302426686937</v>
       </c>
       <c r="J13">
-        <v>1.046781250514204</v>
+        <v>0.9972042601131283</v>
       </c>
       <c r="K13">
-        <v>1.04866026026684</v>
+        <v>1.010557315411057</v>
       </c>
       <c r="L13">
-        <v>1.042207249364954</v>
+        <v>0.9934123412142702</v>
       </c>
       <c r="M13">
-        <v>1.057155659058431</v>
+        <v>1.011941569899879</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.040436929697103</v>
+        <v>0.9674762302156247</v>
       </c>
       <c r="D14">
-        <v>1.045281457732009</v>
+        <v>0.9964806633819039</v>
       </c>
       <c r="E14">
-        <v>1.038832684533997</v>
+        <v>0.9791190808199165</v>
       </c>
       <c r="F14">
-        <v>1.053833304763223</v>
+        <v>0.9980140767662284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037813844733954</v>
+        <v>1.034723046861751</v>
       </c>
       <c r="J14">
-        <v>1.046973441665096</v>
+        <v>0.9983052387626704</v>
       </c>
       <c r="K14">
-        <v>1.048818173981478</v>
+        <v>1.011486312268257</v>
       </c>
       <c r="L14">
-        <v>1.042393027707655</v>
+        <v>0.9944633266617811</v>
       </c>
       <c r="M14">
-        <v>1.057339181152762</v>
+        <v>1.01299056029051</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.040593038115612</v>
+        <v>0.9683895762843827</v>
       </c>
       <c r="D15">
-        <v>1.045398436840074</v>
+        <v>0.9971518030899856</v>
       </c>
       <c r="E15">
-        <v>1.038967049150098</v>
+        <v>0.9798695493774742</v>
       </c>
       <c r="F15">
-        <v>1.05396593772847</v>
+        <v>0.9987599930206167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037848552431871</v>
+        <v>1.034980498716517</v>
       </c>
       <c r="J15">
-        <v>1.047091821511776</v>
+        <v>0.9989797297393379</v>
       </c>
       <c r="K15">
-        <v>1.048915429110353</v>
+        <v>1.012055405295982</v>
       </c>
       <c r="L15">
-        <v>1.042507461478069</v>
+        <v>0.9951072480390822</v>
       </c>
       <c r="M15">
-        <v>1.057452221070451</v>
+        <v>1.013633274112857</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041501249751964</v>
+        <v>0.9736283049489229</v>
       </c>
       <c r="D16">
-        <v>1.046078904004776</v>
+        <v>1.001004500004677</v>
       </c>
       <c r="E16">
-        <v>1.039748849763234</v>
+        <v>0.9841781344459618</v>
       </c>
       <c r="F16">
-        <v>1.054737606520046</v>
+        <v>1.0030427870079</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038049892461604</v>
+        <v>1.036453637936187</v>
       </c>
       <c r="J16">
-        <v>1.047780305464062</v>
+        <v>1.002848485294005</v>
       </c>
       <c r="K16">
-        <v>1.049480877027883</v>
+        <v>1.015319017055328</v>
       </c>
       <c r="L16">
-        <v>1.043173054686086</v>
+        <v>0.9988015195233916</v>
       </c>
       <c r="M16">
-        <v>1.058109644665167</v>
+        <v>1.017320802558695</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042070594163166</v>
+        <v>0.9768490357810997</v>
       </c>
       <c r="D17">
-        <v>1.046505392420739</v>
+        <v>1.003375728717422</v>
       </c>
       <c r="E17">
-        <v>1.040239028017601</v>
+        <v>0.9868304464253964</v>
       </c>
       <c r="F17">
-        <v>1.05522138249037</v>
+        <v>1.005679477724592</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038175595566847</v>
+        <v>1.037356114090831</v>
       </c>
       <c r="J17">
-        <v>1.048211703364739</v>
+        <v>1.005226890861912</v>
       </c>
       <c r="K17">
-        <v>1.049835025467018</v>
+        <v>1.017324826943437</v>
       </c>
       <c r="L17">
-        <v>1.043590161501385</v>
+        <v>1.001073394260019</v>
       </c>
       <c r="M17">
-        <v>1.058521576624886</v>
+        <v>1.01958865258606</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042402558190088</v>
+        <v>0.9787050991589511</v>
       </c>
       <c r="D18">
-        <v>1.046754030798145</v>
+        <v>1.004743107089508</v>
       </c>
       <c r="E18">
-        <v>1.040524861312912</v>
+        <v>0.9883601139751147</v>
       </c>
       <c r="F18">
-        <v>1.055503464436185</v>
+        <v>1.007200210324571</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038248703142955</v>
+        <v>1.037875011457769</v>
       </c>
       <c r="J18">
-        <v>1.048463162647868</v>
+        <v>1.006597463858526</v>
       </c>
       <c r="K18">
-        <v>1.050041400098525</v>
+        <v>1.018480467519595</v>
       </c>
       <c r="L18">
-        <v>1.043833309324554</v>
+        <v>1.002382838088064</v>
       </c>
       <c r="M18">
-        <v>1.058761687823444</v>
+        <v>1.020895805489834</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042515728358449</v>
+        <v>0.9793342394770094</v>
       </c>
       <c r="D19">
-        <v>1.046838788959134</v>
+        <v>1.005206741736816</v>
       </c>
       <c r="E19">
-        <v>1.04062230976046</v>
+        <v>0.9888788119724544</v>
       </c>
       <c r="F19">
-        <v>1.055599630874961</v>
+        <v>1.00771588955861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038273594868518</v>
+        <v>1.038050694689992</v>
       </c>
       <c r="J19">
-        <v>1.048548875443986</v>
+        <v>1.007062024293854</v>
       </c>
       <c r="K19">
-        <v>1.050111735694027</v>
+        <v>1.018872136781137</v>
       </c>
       <c r="L19">
-        <v>1.043916192237944</v>
+        <v>1.002826722208697</v>
       </c>
       <c r="M19">
-        <v>1.058843532226527</v>
+        <v>1.021338916528727</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042009521868226</v>
+        <v>0.9765058350473188</v>
       </c>
       <c r="D20">
-        <v>1.046459647218415</v>
+        <v>1.00312295871828</v>
       </c>
       <c r="E20">
-        <v>1.040186444776591</v>
+        <v>0.9865476928792026</v>
       </c>
       <c r="F20">
-        <v>1.055169487910163</v>
+        <v>1.005398381401427</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038162130847615</v>
+        <v>1.03726006890708</v>
       </c>
       <c r="J20">
-        <v>1.048165435845012</v>
+        <v>1.004973454539976</v>
       </c>
       <c r="K20">
-        <v>1.049797048801364</v>
+        <v>1.017111116043147</v>
       </c>
       <c r="L20">
-        <v>1.043545424765349</v>
+        <v>1.000831282438709</v>
       </c>
       <c r="M20">
-        <v>1.058477396984074</v>
+        <v>1.019346966349821</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.040362311858871</v>
+        <v>0.9670382991302543</v>
       </c>
       <c r="D21">
-        <v>1.04522554150778</v>
+        <v>0.9961589255605829</v>
       </c>
       <c r="E21">
-        <v>1.038768461568861</v>
+        <v>0.9787593215600069</v>
       </c>
       <c r="F21">
-        <v>1.053769908495342</v>
+        <v>0.9976565066456514</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037797244595428</v>
+        <v>1.034599541873621</v>
       </c>
       <c r="J21">
-        <v>1.04691685355808</v>
+        <v>0.997981836297175</v>
       </c>
       <c r="K21">
-        <v>1.048771680818643</v>
+        <v>1.011213435514507</v>
       </c>
       <c r="L21">
-        <v>1.04233832695678</v>
+        <v>0.9941545971628227</v>
       </c>
       <c r="M21">
-        <v>1.057285145581784</v>
+        <v>1.012682413660106</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.039325473021557</v>
+        <v>0.9608596195313508</v>
       </c>
       <c r="D22">
-        <v>1.044448455960254</v>
+        <v>0.9916238548397787</v>
       </c>
       <c r="E22">
-        <v>1.037876170585039</v>
+        <v>0.9736887883447349</v>
       </c>
       <c r="F22">
-        <v>1.052889038028634</v>
+        <v>0.992617342410924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03756589737264</v>
+        <v>1.0328529813779</v>
       </c>
       <c r="J22">
-        <v>1.046130275707092</v>
+        <v>0.9934193097206722</v>
       </c>
       <c r="K22">
-        <v>1.048125216262427</v>
+        <v>1.00736309126739</v>
       </c>
       <c r="L22">
-        <v>1.04157805300702</v>
+        <v>0.989800137549117</v>
       </c>
       <c r="M22">
-        <v>1.056534044191862</v>
+        <v>1.008336483733265</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039875234332617</v>
+        <v>0.9641576878849761</v>
       </c>
       <c r="D23">
-        <v>1.04486051445363</v>
+        <v>0.9940435931739889</v>
       </c>
       <c r="E23">
-        <v>1.038349263509602</v>
+        <v>0.9763941278936256</v>
       </c>
       <c r="F23">
-        <v>1.053356090881002</v>
+        <v>0.9953058214260806</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037688722250621</v>
+        <v>1.033786183013509</v>
       </c>
       <c r="J23">
-        <v>1.046547403513507</v>
+        <v>0.9958546238529186</v>
       </c>
       <c r="K23">
-        <v>1.048468088860797</v>
+        <v>1.009418406957865</v>
       </c>
       <c r="L23">
-        <v>1.041981215568441</v>
+        <v>0.9921241473607326</v>
       </c>
       <c r="M23">
-        <v>1.056932359452955</v>
+        <v>1.010655865486137</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042037118195877</v>
+        <v>0.9766609820816158</v>
       </c>
       <c r="D24">
-        <v>1.046480317893179</v>
+        <v>1.003237223021031</v>
       </c>
       <c r="E24">
-        <v>1.040210205125456</v>
+        <v>0.986675510569026</v>
       </c>
       <c r="F24">
-        <v>1.055192937135425</v>
+        <v>1.005525449723259</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038168215632697</v>
+        <v>1.037303490708594</v>
       </c>
       <c r="J24">
-        <v>1.04818634266447</v>
+        <v>1.005088022976873</v>
       </c>
       <c r="K24">
-        <v>1.049814209422129</v>
+        <v>1.017207726895926</v>
       </c>
       <c r="L24">
-        <v>1.043565639814494</v>
+        <v>1.000940730715016</v>
       </c>
       <c r="M24">
-        <v>1.058497360362186</v>
+        <v>1.019456222151701</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044540986809849</v>
+        <v>0.9902948061665795</v>
       </c>
       <c r="D25">
-        <v>1.048355115852484</v>
+        <v>1.013294803875376</v>
       </c>
       <c r="E25">
-        <v>1.042366626893344</v>
+        <v>0.997930967878091</v>
       </c>
       <c r="F25">
-        <v>1.05732072918108</v>
+        <v>1.016715994159872</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03871629392121</v>
+        <v>1.041093149041155</v>
       </c>
       <c r="J25">
-        <v>1.050081673801864</v>
+        <v>1.015153262085326</v>
       </c>
       <c r="K25">
-        <v>1.051368703779197</v>
+        <v>1.025690182163328</v>
       </c>
       <c r="L25">
-        <v>1.045398661136658</v>
+        <v>1.010561488041809</v>
       </c>
       <c r="M25">
-        <v>1.060307126169889</v>
+        <v>1.029060241776432</v>
       </c>
     </row>
   </sheetData>
